--- a/Arduino/Project 1 Arduino ini.xlsx
+++ b/Arduino/Project 1 Arduino ini.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Serial</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Температура колектор</t>
   </si>
   <si>
-    <t>Температура отвън</t>
-  </si>
-  <si>
     <t>Комуникация</t>
   </si>
   <si>
@@ -195,16 +192,51 @@
   </si>
   <si>
     <t>Button name</t>
+  </si>
+  <si>
+    <t>3wayvalvedown</t>
+  </si>
+  <si>
+    <t>3wayValveUp</t>
+  </si>
+  <si>
+    <t>RemoteHeatPump</t>
+  </si>
+  <si>
+    <t>RemoteHeater</t>
+  </si>
+  <si>
+    <t>Температура стайна</t>
+  </si>
+  <si>
+    <t>RELAY 9</t>
+  </si>
+  <si>
+    <t>RELAY 10</t>
+  </si>
+  <si>
+    <t>RELAY 11</t>
+  </si>
+  <si>
+    <t>RELAY 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -219,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -227,11 +259,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +323,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,7 +623,7 @@
   <dimension ref="B3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +632,7 @@
     <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="4" max="5" width="15.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -552,27 +644,27 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -582,8 +674,8 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -599,7 +691,7 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
@@ -614,7 +706,7 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
@@ -629,22 +721,22 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -652,19 +744,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -672,17 +764,17 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -690,17 +782,17 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,17 +800,17 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -726,17 +818,17 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -744,17 +836,17 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -762,14 +854,17 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -777,14 +872,17 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
         <v>44</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -792,16 +890,19 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -809,14 +910,17 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -824,11 +928,11 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -836,11 +940,11 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -853,5 +957,6 @@
     <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arduino/Project 1 Arduino ini.xlsx
+++ b/Arduino/Project 1 Arduino ini.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Serial</t>
   </si>
@@ -219,6 +219,36 @@
   </si>
   <si>
     <t>RELAY 12</t>
+  </si>
+  <si>
+    <t>EEPROM data sections</t>
+  </si>
+  <si>
+    <t>BoilerSource</t>
+  </si>
+  <si>
+    <t>BoilerState</t>
+  </si>
+  <si>
+    <t>HeatingSource</t>
+  </si>
+  <si>
+    <t>HeatingState</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>BTempSet</t>
+  </si>
+  <si>
+    <t>BTemp</t>
+  </si>
+  <si>
+    <t>BHistSet</t>
+  </si>
+  <si>
+    <t>HTempSet</t>
   </si>
 </sst>
 </file>
@@ -315,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +370,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G27"/>
+  <dimension ref="B3:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,8 +981,162 @@
         <v>64</v>
       </c>
     </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <f>C40+32</f>
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <f>C41+32</f>
+        <v>74</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <f>C42+32</f>
+        <v>106</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>

--- a/Arduino/Project 1 Arduino ini.xlsx
+++ b/Arduino/Project 1 Arduino ini.xlsx
@@ -361,6 +361,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -370,10 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,13 +678,13 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -692,9 +692,9 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
@@ -708,7 +708,7 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -725,7 +725,7 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -800,7 +800,7 @@
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
@@ -890,15 +890,15 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>45</v>
+      <c r="F22" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -908,15 +908,15 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>43</v>
+      <c r="F23" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -946,7 +946,7 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="3" t="s">
         <v>62</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="3" t="s">
         <v>63</v>
       </c>
@@ -976,17 +976,20 @@
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="8"/>
+    </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">

--- a/Arduino/Project 1 Arduino ini.xlsx
+++ b/Arduino/Project 1 Arduino ini.xlsx
@@ -227,9 +227,6 @@
     <t>BoilerSource</t>
   </si>
   <si>
-    <t>BoilerState</t>
-  </si>
-  <si>
     <t>HeatingSource</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>HTempSet</t>
+  </si>
+  <si>
+    <t>BoilerPic</t>
   </si>
 </sst>
 </file>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="1">
         <v>32</v>
@@ -1107,7 +1107,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="1">
         <v>32</v>
@@ -1119,7 +1119,7 @@
         <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1">
         <v>32</v>
@@ -1131,7 +1131,7 @@
         <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1">
         <v>32</v>
